--- a/public/template/Template_import_dirjab.xlsx
+++ b/public/template/Template_import_dirjab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\DIRJAB-IP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1F9BC-3639-4F7C-84FF-905039E8A192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3684DDFB-1C79-46BA-8E14-267F51CA7C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
   <si>
     <t>Tanggal</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>S2, S1, D3, SMK/STM</t>
+  </si>
+  <si>
+    <t>*)</t>
+  </si>
+  <si>
+    <t>berikan huruf ( v ) untuk memilih</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -863,163 +869,164 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,56 +1457,56 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -1512,15 +1519,15 @@
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
@@ -1530,27 +1537,27 @@
       <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
@@ -1560,12 +1567,12 @@
       <c r="D13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
@@ -1575,12 +1582,12 @@
       <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
@@ -1590,12 +1597,12 @@
       <c r="D15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
@@ -1605,12 +1612,12 @@
       <c r="D16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
@@ -1620,12 +1627,12 @@
       <c r="D17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
@@ -1660,24 +1667,24 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
@@ -1699,30 +1706,30 @@
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="80" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="82"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="23">
@@ -1732,8 +1739,8 @@
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="23">
@@ -2008,85 +2015,85 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54" t="s">
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="54"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="23">
         <v>1</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="78"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="74"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="23">
         <v>2</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="78"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="74"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="23">
         <v>3</v>
       </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="78"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="74"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="23">
         <v>4</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="78"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="74"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="23">
         <v>5</v>
       </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2097,15 +2104,15 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
@@ -2113,20 +2120,28 @@
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="E65" s="53" t="s">
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="E65" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="53"/>
+      <c r="F65" s="71"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="E66" s="53" t="s">
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
+      <c r="E66" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="53"/>
+      <c r="F66" s="71"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G68" s="1" t="s">
@@ -2134,108 +2149,108 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="E69" s="53" t="s">
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="E69" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="53"/>
+      <c r="F69" s="71"/>
       <c r="G69" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="73"/>
-      <c r="C70" s="74"/>
-      <c r="E70" s="53" t="s">
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="E70" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="53"/>
+      <c r="F70" s="71"/>
       <c r="G70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="73"/>
-      <c r="C71" s="74"/>
-      <c r="E71" s="53" t="s">
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="E71" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="53"/>
+      <c r="F71" s="71"/>
       <c r="G71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="73"/>
-      <c r="C72" s="74"/>
-      <c r="E72" s="53" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
+      <c r="E72" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="53"/>
+      <c r="F72" s="71"/>
       <c r="G72" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="73"/>
-      <c r="C73" s="74"/>
-      <c r="E73" s="53" t="s">
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="E73" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="53"/>
+      <c r="F73" s="71"/>
       <c r="G73" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="73"/>
-      <c r="C74" s="74"/>
-      <c r="E74" s="53" t="s">
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="E74" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="F74" s="53"/>
+      <c r="F74" s="71"/>
       <c r="G74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="53"/>
+      <c r="F76" s="71"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="73"/>
-      <c r="C77" s="74"/>
-      <c r="E77" s="53" t="s">
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
+      <c r="E77" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="53"/>
+      <c r="F77" s="71"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="73"/>
-      <c r="C78" s="74"/>
-      <c r="E78" s="53" t="s">
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="E78" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="53"/>
+      <c r="F78" s="71"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="73"/>
-      <c r="C79" s="74"/>
-      <c r="E79" s="53" t="s">
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
+      <c r="E79" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F79" s="53"/>
+      <c r="F79" s="71"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="73"/>
-      <c r="C80" s="74"/>
-      <c r="E80" s="53" t="s">
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
+      <c r="E80" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="53"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -2284,15 +2299,15 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
@@ -2301,13 +2316,13 @@
       <c r="C90" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="23">
@@ -2325,121 +2340,121 @@
         <v>2</v>
       </c>
       <c r="C92" s="36"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="34">
         <v>3</v>
       </c>
       <c r="C93" s="37"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="23">
         <v>4</v>
       </c>
       <c r="C94" s="38"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="23">
         <v>5</v>
       </c>
       <c r="C95" s="35"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="80"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="23">
         <v>6</v>
       </c>
       <c r="C96" s="35"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="80"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="23">
         <v>7</v>
       </c>
       <c r="C97" s="35"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="80"/>
+      <c r="H97" s="80"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="23">
         <v>8</v>
       </c>
       <c r="C98" s="35"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="H98" s="80"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="23">
         <v>9</v>
       </c>
       <c r="C99" s="35"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="23">
         <v>10</v>
       </c>
       <c r="C100" s="39"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="23">
         <v>11</v>
       </c>
       <c r="C101" s="35"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="23">
         <v>12</v>
       </c>
       <c r="C102" s="35"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="80"/>
+      <c r="H102" s="80"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
@@ -2448,13 +2463,13 @@
       <c r="C104" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
     </row>
     <row r="105" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="23">
@@ -2483,66 +2498,66 @@
         <v>3</v>
       </c>
       <c r="C107" s="35"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="80"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="23">
         <v>4</v>
       </c>
       <c r="C108" s="35"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="62"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="80"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="23">
         <v>5</v>
       </c>
       <c r="C109" s="35"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="23">
         <v>6</v>
       </c>
       <c r="C110" s="35"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
+      <c r="H110" s="80"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="23">
         <v>7</v>
       </c>
       <c r="C111" s="35"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="80"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="23">
         <v>8</v>
       </c>
       <c r="C112" s="35"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2553,83 +2568,83 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="23">
         <v>1</v>
       </c>
-      <c r="C117" s="64"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="87"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="23">
         <v>2</v>
       </c>
-      <c r="C118" s="64"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="87"/>
+      <c r="E118" s="87"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="87"/>
+      <c r="H118" s="87"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="23">
         <v>3</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="23">
         <v>4</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="23">
         <v>5</v>
       </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -2640,104 +2655,104 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="52" t="s">
+      <c r="B124" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="59"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="23">
         <v>1</v>
       </c>
-      <c r="C126" s="64"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="87"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="87"/>
+      <c r="G126" s="87"/>
+      <c r="H126" s="87"/>
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="23">
         <v>2</v>
       </c>
-      <c r="C127" s="64"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="87"/>
+      <c r="E127" s="87"/>
+      <c r="F127" s="87"/>
+      <c r="G127" s="87"/>
+      <c r="H127" s="87"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="23">
         <v>3</v>
       </c>
-      <c r="C128" s="50"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="50"/>
+      <c r="C128" s="88"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="88"/>
+      <c r="G128" s="88"/>
+      <c r="H128" s="88"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="23">
         <v>4</v>
       </c>
-      <c r="C129" s="50"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="50"/>
+      <c r="C129" s="88"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="23">
         <v>5</v>
       </c>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="88"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="88"/>
+      <c r="H130" s="88"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
     </row>
     <row r="133" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="18" t="s">
@@ -2746,37 +2761,37 @@
       <c r="C134" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D134" s="54" t="s">
+      <c r="D134" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54" t="s">
+      <c r="E134" s="59"/>
+      <c r="F134" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="23">
         <v>1</v>
       </c>
       <c r="C135" s="35"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="101"/>
-      <c r="F135" s="62"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="100"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="89"/>
     </row>
     <row r="136" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="23">
         <v>2</v>
       </c>
       <c r="C136" s="35"/>
-      <c r="D136" s="100"/>
-      <c r="E136" s="101"/>
-      <c r="F136" s="62"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="100"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="80"/>
+      <c r="H136" s="89"/>
       <c r="I136"/>
     </row>
     <row r="137" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2784,11 +2799,11 @@
         <v>3</v>
       </c>
       <c r="C137" s="35"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="101"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="100"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="89"/>
       <c r="I137"/>
     </row>
     <row r="138" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,11 +2811,11 @@
         <v>4</v>
       </c>
       <c r="C138" s="35"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="101"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="100"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="89"/>
       <c r="I138"/>
     </row>
     <row r="139" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,56 +2836,56 @@
       <c r="B141" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="58"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="91"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C142" s="63"/>
-      <c r="D142" s="63"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="63"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="93"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="93"/>
+      <c r="G142" s="93"/>
+      <c r="H142" s="93"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C143" s="57"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="58"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="91"/>
+      <c r="G143" s="91"/>
+      <c r="H143" s="91"/>
     </row>
     <row r="144" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="91"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="91"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="91"/>
     </row>
     <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
-      <c r="H145" s="59"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="96"/>
     </row>
     <row r="146" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2882,63 +2897,63 @@
       </c>
     </row>
     <row r="148" spans="1:9" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="60" t="s">
+      <c r="B148" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="61"/>
-      <c r="D148" s="61"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
+      <c r="F148" s="98"/>
+      <c r="G148" s="98"/>
+      <c r="H148" s="98"/>
     </row>
     <row r="149" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>11</v>
       </c>
-      <c r="B150" s="55" t="s">
+      <c r="B150" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="53"/>
-      <c r="H150" s="53"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
     </row>
     <row r="151" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="52" t="s">
+      <c r="B151" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C151" s="53"/>
-      <c r="D151" s="53"/>
-      <c r="E151" s="53"/>
-      <c r="F151" s="53"/>
-      <c r="G151" s="53"/>
-      <c r="H151" s="53"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="55" t="s">
+      <c r="B152" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C152" s="53"/>
-      <c r="D152" s="53"/>
-      <c r="E152" s="53"/>
-      <c r="F152" s="53"/>
-      <c r="G152" s="53"/>
-      <c r="H152" s="53"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
     </row>
     <row r="153" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="52" t="s">
+      <c r="B153" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="18" t="s">
@@ -2947,37 +2962,37 @@
       <c r="C154" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D154" s="54" t="s">
+      <c r="D154" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54" t="s">
+      <c r="E154" s="59"/>
+      <c r="F154" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G154" s="54"/>
-      <c r="H154" s="54"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C155" s="40"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49"/>
-      <c r="G155" s="49"/>
-      <c r="H155" s="49"/>
+      <c r="D155" s="95"/>
+      <c r="E155" s="95"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="95"/>
+      <c r="H155" s="95"/>
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C156" s="40"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
-      <c r="G156" s="49"/>
-      <c r="H156" s="49"/>
+      <c r="D156" s="95"/>
+      <c r="E156" s="95"/>
+      <c r="F156" s="95"/>
+      <c r="G156" s="95"/>
+      <c r="H156" s="95"/>
       <c r="I156" s="13"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,11 +3000,11 @@
         <v>92</v>
       </c>
       <c r="C157" s="40"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49"/>
-      <c r="H157" s="49"/>
+      <c r="D157" s="95"/>
+      <c r="E157" s="95"/>
+      <c r="F157" s="95"/>
+      <c r="G157" s="95"/>
+      <c r="H157" s="95"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -2997,11 +3012,11 @@
         <v>93</v>
       </c>
       <c r="C158" s="40"/>
-      <c r="D158" s="49"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="49"/>
-      <c r="G158" s="49"/>
-      <c r="H158" s="49"/>
+      <c r="D158" s="95"/>
+      <c r="E158" s="95"/>
+      <c r="F158" s="95"/>
+      <c r="G158" s="95"/>
+      <c r="H158" s="95"/>
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3009,38 +3024,38 @@
         <v>94</v>
       </c>
       <c r="C159" s="40"/>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="49"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="49"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="95"/>
+      <c r="F159" s="95"/>
+      <c r="G159" s="95"/>
+      <c r="H159" s="95"/>
       <c r="I159" s="14"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I160" s="14"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="56" t="s">
+      <c r="B161" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C161" s="53"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
-      <c r="H161" s="53"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="71"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="71"/>
       <c r="I161" s="14"/>
     </row>
     <row r="162" spans="2:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="52" t="s">
+      <c r="B162" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C162" s="53"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="53"/>
+      <c r="C162" s="71"/>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="71"/>
+      <c r="G162" s="71"/>
+      <c r="H162" s="71"/>
       <c r="I162" s="14"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -3050,17 +3065,17 @@
       <c r="C163" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D163" s="54" t="s">
+      <c r="D163" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E163" s="54"/>
+      <c r="E163" s="59"/>
       <c r="F163" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G163" s="54" t="s">
+      <c r="G163" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H163" s="54"/>
+      <c r="H163" s="59"/>
       <c r="I163" s="14"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
@@ -3068,11 +3083,11 @@
         <v>90</v>
       </c>
       <c r="C164" s="40"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
+      <c r="D164" s="95"/>
+      <c r="E164" s="95"/>
       <c r="F164" s="40"/>
-      <c r="G164" s="49"/>
-      <c r="H164" s="49"/>
+      <c r="G164" s="95"/>
+      <c r="H164" s="95"/>
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -3080,11 +3095,11 @@
         <v>2</v>
       </c>
       <c r="C165" s="40"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
+      <c r="D165" s="95"/>
+      <c r="E165" s="95"/>
       <c r="F165" s="40"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="49"/>
+      <c r="G165" s="95"/>
+      <c r="H165" s="95"/>
       <c r="I165" s="14"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
@@ -3092,11 +3107,11 @@
         <v>3</v>
       </c>
       <c r="C166" s="40"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
       <c r="F166" s="40"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
       <c r="I166" s="14"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
@@ -3104,38 +3119,38 @@
         <v>4</v>
       </c>
       <c r="C167" s="40"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
       <c r="F167" s="40"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="49"/>
+      <c r="G167" s="95"/>
+      <c r="H167" s="95"/>
       <c r="I167" s="14"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I168" s="14"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="55" t="s">
+      <c r="B169" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
-      <c r="H169" s="53"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="71"/>
+      <c r="H169" s="71"/>
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="2:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="52" t="s">
+      <c r="B170" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="53"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="71"/>
       <c r="I170" s="14"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -3145,127 +3160,127 @@
       <c r="C171" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D171" s="54" t="s">
+      <c r="D171" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E171" s="54"/>
+      <c r="E171" s="59"/>
       <c r="F171" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G171" s="54" t="s">
+      <c r="G171" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H171" s="54"/>
+      <c r="H171" s="59"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="23">
         <v>1</v>
       </c>
       <c r="C172" s="40"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
+      <c r="D172" s="95"/>
+      <c r="E172" s="95"/>
       <c r="F172" s="40"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
+      <c r="G172" s="95"/>
+      <c r="H172" s="95"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="23">
         <v>2</v>
       </c>
       <c r="C173" s="40"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
       <c r="F173" s="40"/>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="95"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="23">
         <v>3</v>
       </c>
       <c r="C174" s="40"/>
-      <c r="D174" s="49"/>
-      <c r="E174" s="49"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="95"/>
       <c r="F174" s="40"/>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49"/>
+      <c r="G174" s="95"/>
+      <c r="H174" s="95"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="23">
         <v>4</v>
       </c>
       <c r="C175" s="40"/>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="95"/>
       <c r="F175" s="40"/>
-      <c r="G175" s="49"/>
-      <c r="H175" s="49"/>
+      <c r="G175" s="95"/>
+      <c r="H175" s="95"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="23">
         <v>5</v>
       </c>
       <c r="C176" s="40"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="95"/>
       <c r="F176" s="40"/>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
+      <c r="G176" s="95"/>
+      <c r="H176" s="95"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="23">
         <v>6</v>
       </c>
       <c r="C177" s="40"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="95"/>
       <c r="F177" s="40"/>
-      <c r="G177" s="49"/>
-      <c r="H177" s="49"/>
+      <c r="G177" s="95"/>
+      <c r="H177" s="95"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="23">
         <v>7</v>
       </c>
       <c r="C178" s="40"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
+      <c r="D178" s="95"/>
+      <c r="E178" s="95"/>
       <c r="F178" s="40"/>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49"/>
+      <c r="G178" s="95"/>
+      <c r="H178" s="95"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="23">
         <v>8</v>
       </c>
       <c r="C179" s="40"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
+      <c r="D179" s="95"/>
+      <c r="E179" s="95"/>
       <c r="F179" s="40"/>
-      <c r="G179" s="49"/>
-      <c r="H179" s="49"/>
+      <c r="G179" s="95"/>
+      <c r="H179" s="95"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="55" t="s">
+      <c r="B181" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
+      <c r="H181" s="71"/>
     </row>
     <row r="182" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="52" t="s">
+      <c r="B182" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="53"/>
-      <c r="H182" s="53"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="71"/>
+      <c r="H182" s="71"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="18" t="s">
@@ -3274,10 +3289,10 @@
       <c r="C183" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D183" s="54" t="s">
+      <c r="D183" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E183" s="54"/>
+      <c r="E183" s="59"/>
       <c r="F183" s="18" t="s">
         <v>97</v>
       </c>
@@ -3293,8 +3308,8 @@
         <v>1</v>
       </c>
       <c r="C184" s="44"/>
-      <c r="D184" s="50"/>
-      <c r="E184" s="50"/>
+      <c r="D184" s="88"/>
+      <c r="E184" s="88"/>
       <c r="F184" s="44" t="s">
         <v>120</v>
       </c>
@@ -3302,7 +3317,7 @@
         <v>121</v>
       </c>
       <c r="H184" s="44"/>
-      <c r="I184" s="47" t="s">
+      <c r="I184" s="99" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3311,8 +3326,8 @@
         <v>2</v>
       </c>
       <c r="C185" s="44"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="50"/>
+      <c r="D185" s="88"/>
+      <c r="E185" s="88"/>
       <c r="F185" s="44" t="s">
         <v>120</v>
       </c>
@@ -3320,15 +3335,15 @@
         <v>121</v>
       </c>
       <c r="H185" s="44"/>
-      <c r="I185" s="47"/>
+      <c r="I185" s="99"/>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="23">
         <v>3</v>
       </c>
       <c r="C186" s="44"/>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
       <c r="F186" s="44" t="s">
         <v>120</v>
       </c>
@@ -3336,15 +3351,15 @@
         <v>121</v>
       </c>
       <c r="H186" s="44"/>
-      <c r="I186" s="47"/>
+      <c r="I186" s="99"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="23">
         <v>4</v>
       </c>
       <c r="C187" s="44"/>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
       <c r="F187" s="44" t="s">
         <v>120</v>
       </c>
@@ -3352,15 +3367,15 @@
         <v>121</v>
       </c>
       <c r="H187" s="44"/>
-      <c r="I187" s="47"/>
+      <c r="I187" s="99"/>
     </row>
     <row r="188" spans="2:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="28">
         <v>5</v>
       </c>
       <c r="C188" s="46"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="51"/>
+      <c r="D188" s="101"/>
+      <c r="E188" s="101"/>
       <c r="F188" s="44" t="s">
         <v>120</v>
       </c>
@@ -3368,15 +3383,15 @@
         <v>121</v>
       </c>
       <c r="H188" s="46"/>
-      <c r="I188" s="47"/>
+      <c r="I188" s="99"/>
     </row>
     <row r="189" spans="2:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="28">
         <v>6</v>
       </c>
       <c r="C189" s="46"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
+      <c r="D189" s="101"/>
+      <c r="E189" s="101"/>
       <c r="F189" s="44" t="s">
         <v>120</v>
       </c>
@@ -3384,15 +3399,15 @@
         <v>121</v>
       </c>
       <c r="H189" s="46"/>
-      <c r="I189" s="47"/>
+      <c r="I189" s="99"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="23">
         <v>7</v>
       </c>
       <c r="C190" s="44"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
       <c r="F190" s="44" t="s">
         <v>120</v>
       </c>
@@ -3400,15 +3415,15 @@
         <v>121</v>
       </c>
       <c r="H190" s="44"/>
-      <c r="I190" s="47"/>
+      <c r="I190" s="99"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="23">
         <v>8</v>
       </c>
       <c r="C191" s="44"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
       <c r="F191" s="44" t="s">
         <v>120</v>
       </c>
@@ -3416,15 +3431,15 @@
         <v>121</v>
       </c>
       <c r="H191" s="44"/>
-      <c r="I191" s="47"/>
+      <c r="I191" s="99"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="23">
         <v>9</v>
       </c>
       <c r="C192" s="44"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
       <c r="F192" s="44" t="s">
         <v>120</v>
       </c>
@@ -3432,15 +3447,15 @@
         <v>121</v>
       </c>
       <c r="H192" s="44"/>
-      <c r="I192" s="47"/>
+      <c r="I192" s="99"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="23">
         <v>10</v>
       </c>
       <c r="C193" s="44"/>
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
       <c r="F193" s="44" t="s">
         <v>120</v>
       </c>
@@ -3448,15 +3463,15 @@
         <v>121</v>
       </c>
       <c r="H193" s="44"/>
-      <c r="I193" s="47"/>
+      <c r="I193" s="99"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="23">
         <v>11</v>
       </c>
       <c r="C194" s="40"/>
-      <c r="D194" s="49"/>
-      <c r="E194" s="49"/>
+      <c r="D194" s="95"/>
+      <c r="E194" s="95"/>
       <c r="F194" s="40" t="s">
         <v>122</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>121</v>
       </c>
       <c r="H194" s="40"/>
-      <c r="I194" s="48" t="s">
+      <c r="I194" s="100" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3473,8 +3488,8 @@
         <v>12</v>
       </c>
       <c r="C195" s="40"/>
-      <c r="D195" s="49"/>
-      <c r="E195" s="49"/>
+      <c r="D195" s="95"/>
+      <c r="E195" s="95"/>
       <c r="F195" s="40" t="s">
         <v>122</v>
       </c>
@@ -3482,15 +3497,15 @@
         <v>121</v>
       </c>
       <c r="H195" s="40"/>
-      <c r="I195" s="48"/>
+      <c r="I195" s="100"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="23">
         <v>13</v>
       </c>
       <c r="C196" s="40"/>
-      <c r="D196" s="49"/>
-      <c r="E196" s="49"/>
+      <c r="D196" s="95"/>
+      <c r="E196" s="95"/>
       <c r="F196" s="40" t="s">
         <v>122</v>
       </c>
@@ -3498,15 +3513,15 @@
         <v>121</v>
       </c>
       <c r="H196" s="40"/>
-      <c r="I196" s="48"/>
+      <c r="I196" s="100"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="23">
         <v>14</v>
       </c>
       <c r="C197" s="40"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="49"/>
+      <c r="D197" s="95"/>
+      <c r="E197" s="95"/>
       <c r="F197" s="40" t="s">
         <v>122</v>
       </c>
@@ -3514,7 +3529,7 @@
         <v>121</v>
       </c>
       <c r="H197" s="40"/>
-      <c r="I197" s="48"/>
+      <c r="I197" s="100"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
@@ -3544,6 +3559,218 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="231">
+    <mergeCell ref="I184:I193"/>
+    <mergeCell ref="I194:I197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="B181:H181"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E17:H17"/>
@@ -3563,218 +3790,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="B181:H181"/>
-    <mergeCell ref="I184:I193"/>
-    <mergeCell ref="I194:I197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
